--- a/excel/ItemConfig.xlsx
+++ b/excel/ItemConfig.xlsx
@@ -163,127 +163,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>common/items/宝石</t>
-  </si>
-  <si>
-    <t>common/items/宝石龙</t>
-  </si>
-  <si>
-    <t>common/items/钻石龙</t>
-  </si>
-  <si>
-    <t>common/items/矿石初级</t>
-  </si>
-  <si>
-    <t>common/items/矿石中级</t>
-  </si>
-  <si>
-    <t>common/items/矿石高级</t>
-  </si>
-  <si>
-    <t>common/items/初级拼图1</t>
-  </si>
-  <si>
-    <t>common/items/初级拼图2</t>
-  </si>
-  <si>
-    <t>common/items/初级拼图3</t>
-  </si>
-  <si>
-    <t>common/items/初级拼图4</t>
-  </si>
-  <si>
-    <t>common/items/初级拼图5</t>
-  </si>
-  <si>
-    <t>common/items/初级拼图6</t>
-  </si>
-  <si>
-    <t>common/items/初级拼图7</t>
-  </si>
-  <si>
-    <t>common/items/初级拼图8</t>
-  </si>
-  <si>
-    <t>common/items/初级拼图9</t>
-  </si>
-  <si>
-    <t>common/items/初级拼图10</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图1</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图2</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图3</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图4</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图5</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图6</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图7</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图8</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图9</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图10</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图11</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图12</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图13</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图14</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图15</t>
-  </si>
-  <si>
-    <t>common/items/金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10级金币龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>common/items/10级金币龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1级金币龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>common/items/1级金币龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2级金币龙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>common/items/2级金币龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3级金币龙</t>
   </si>
   <si>
@@ -305,27 +196,6 @@
     <t>9级金币龙</t>
   </si>
   <si>
-    <t>common/items/3级金币龙</t>
-  </si>
-  <si>
-    <t>common/items/4级金币龙</t>
-  </si>
-  <si>
-    <t>common/items/5级金币龙</t>
-  </si>
-  <si>
-    <t>common/items/6级金币龙</t>
-  </si>
-  <si>
-    <t>common/items/7级金币龙</t>
-  </si>
-  <si>
-    <t>common/items/8级金币龙</t>
-  </si>
-  <si>
-    <t>common/items/9级金币龙</t>
-  </si>
-  <si>
     <t>星兽币</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -334,12 +204,136 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>common/items/恐龙币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common/items/虚拟币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>icon/金币</t>
+  </si>
+  <si>
+    <t>icon/宝石</t>
+  </si>
+  <si>
+    <t>icon/恐龙币</t>
+  </si>
+  <si>
+    <t>icon/虚拟币</t>
+  </si>
+  <si>
+    <t>icon/1级金币龙</t>
+  </si>
+  <si>
+    <t>icon/2级金币龙</t>
+  </si>
+  <si>
+    <t>icon/3级金币龙</t>
+  </si>
+  <si>
+    <t>icon/4级金币龙</t>
+  </si>
+  <si>
+    <t>icon/5级金币龙</t>
+  </si>
+  <si>
+    <t>icon/6级金币龙</t>
+  </si>
+  <si>
+    <t>icon/7级金币龙</t>
+  </si>
+  <si>
+    <t>icon/8级金币龙</t>
+  </si>
+  <si>
+    <t>icon/9级金币龙</t>
+  </si>
+  <si>
+    <t>icon/10级金币龙</t>
+  </si>
+  <si>
+    <t>icon/宝石龙</t>
+  </si>
+  <si>
+    <t>icon/钻石龙</t>
+  </si>
+  <si>
+    <t>icon/矿石初级</t>
+  </si>
+  <si>
+    <t>icon/矿石中级</t>
+  </si>
+  <si>
+    <t>icon/矿石高级</t>
+  </si>
+  <si>
+    <t>icon/初级拼图1</t>
+  </si>
+  <si>
+    <t>icon/初级拼图2</t>
+  </si>
+  <si>
+    <t>icon/初级拼图3</t>
+  </si>
+  <si>
+    <t>icon/初级拼图4</t>
+  </si>
+  <si>
+    <t>icon/初级拼图5</t>
+  </si>
+  <si>
+    <t>icon/初级拼图6</t>
+  </si>
+  <si>
+    <t>icon/初级拼图7</t>
+  </si>
+  <si>
+    <t>icon/初级拼图8</t>
+  </si>
+  <si>
+    <t>icon/初级拼图9</t>
+  </si>
+  <si>
+    <t>icon/初级拼图10</t>
+  </si>
+  <si>
+    <t>icon/中级拼图1</t>
+  </si>
+  <si>
+    <t>icon/中级拼图2</t>
+  </si>
+  <si>
+    <t>icon/中级拼图3</t>
+  </si>
+  <si>
+    <t>icon/中级拼图4</t>
+  </si>
+  <si>
+    <t>icon/中级拼图5</t>
+  </si>
+  <si>
+    <t>icon/中级拼图6</t>
+  </si>
+  <si>
+    <t>icon/中级拼图7</t>
+  </si>
+  <si>
+    <t>icon/中级拼图8</t>
+  </si>
+  <si>
+    <t>icon/中级拼图9</t>
+  </si>
+  <si>
+    <t>icon/中级拼图10</t>
+  </si>
+  <si>
+    <t>icon/中级拼图11</t>
+  </si>
+  <si>
+    <t>icon/中级拼图12</t>
+  </si>
+  <si>
+    <t>icon/中级拼图13</t>
+  </si>
+  <si>
+    <t>icon/中级拼图14</t>
+  </si>
+  <si>
+    <t>icon/中级拼图15</t>
   </si>
 </sst>
 </file>
@@ -731,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -806,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -817,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -825,10 +819,10 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -836,10 +830,10 @@
         <v>104</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -847,10 +841,10 @@
         <v>201</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -858,10 +852,10 @@
         <v>202</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -869,10 +863,10 @@
         <v>203</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -880,10 +874,10 @@
         <v>204</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -891,10 +885,10 @@
         <v>205</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -902,10 +896,10 @@
         <v>206</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -913,10 +907,10 @@
         <v>207</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -924,10 +918,10 @@
         <v>208</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -935,10 +929,10 @@
         <v>209</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -946,10 +940,10 @@
         <v>210</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -960,7 +954,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -971,7 +965,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -982,7 +976,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -993,7 +987,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1004,7 +998,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1015,7 +1009,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1026,7 +1020,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1037,7 +1031,7 @@
         <v>16</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1048,7 +1042,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1059,7 +1053,7 @@
         <v>18</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1070,7 +1064,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1081,7 +1075,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1092,7 +1086,7 @@
         <v>21</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1103,7 +1097,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1114,7 +1108,7 @@
         <v>23</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1125,7 +1119,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1136,7 +1130,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1147,7 +1141,7 @@
         <v>26</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1158,7 +1152,7 @@
         <v>27</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1169,7 +1163,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1180,7 +1174,7 @@
         <v>29</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1191,7 +1185,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1202,7 +1196,7 @@
         <v>31</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1213,7 +1207,7 @@
         <v>32</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1224,7 +1218,7 @@
         <v>33</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1235,7 +1229,7 @@
         <v>34</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1246,7 +1240,7 @@
         <v>35</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1257,7 +1251,7 @@
         <v>36</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1268,7 +1262,7 @@
         <v>37</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1279,7 +1273,7 @@
         <v>38</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/excel/ItemConfig.xlsx
+++ b/excel/ItemConfig.xlsx
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -950,7 +950,7 @@
       <c r="A20" s="5">
         <v>211</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -959,9 +959,9 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5">
-        <v>215</v>
-      </c>
-      <c r="B21" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -970,7 +970,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>11</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="5">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>12</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>13</v>

--- a/excel/ItemConfig.xlsx
+++ b/excel/ItemConfig.xlsx
@@ -376,15 +376,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,8 +404,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -427,9 +433,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -442,15 +466,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="计算" xfId="1" builtinId="22"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -725,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -792,30 +817,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.4" customHeight="1">
-      <c r="A6" s="5">
+    <row r="6" spans="1:3" s="5" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A6" s="4">
         <v>101</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5">
+    <row r="7" spans="1:3" s="5" customFormat="1">
+      <c r="A7" s="4">
         <v>102</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5">
+    <row r="8" spans="1:3" s="5" customFormat="1">
+      <c r="A8" s="4">
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -825,8 +850,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5">
+    <row r="9" spans="1:3" s="5" customFormat="1">
+      <c r="A9" s="4">
         <v>104</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -836,8 +861,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5">
+    <row r="10" spans="1:3" s="5" customFormat="1">
+      <c r="A10" s="4">
         <v>201</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -847,8 +872,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5">
+    <row r="11" spans="1:3" s="5" customFormat="1">
+      <c r="A11" s="4">
         <v>202</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -858,8 +883,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5">
+    <row r="12" spans="1:3" s="5" customFormat="1">
+      <c r="A12" s="4">
         <v>203</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -869,8 +894,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5">
+    <row r="13" spans="1:3" s="5" customFormat="1">
+      <c r="A13" s="4">
         <v>204</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -880,8 +905,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5">
+    <row r="14" spans="1:3" s="5" customFormat="1">
+      <c r="A14" s="4">
         <v>205</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -891,8 +916,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5">
+    <row r="15" spans="1:3" s="5" customFormat="1">
+      <c r="A15" s="4">
         <v>206</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -902,8 +927,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5">
+    <row r="16" spans="1:3" s="5" customFormat="1">
+      <c r="A16" s="4">
         <v>207</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -913,8 +938,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5">
+    <row r="17" spans="1:3" s="5" customFormat="1">
+      <c r="A17" s="4">
         <v>208</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -924,8 +949,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5">
+    <row r="18" spans="1:3" s="5" customFormat="1">
+      <c r="A18" s="4">
         <v>209</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -935,8 +960,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5">
+    <row r="19" spans="1:3" s="5" customFormat="1">
+      <c r="A19" s="4">
         <v>210</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -946,333 +971,333 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="5">
+    <row r="20" spans="1:3" s="5" customFormat="1">
+      <c r="A20" s="4">
         <v>211</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5">
+    <row r="21" spans="1:3" s="5" customFormat="1">
+      <c r="A21" s="4">
         <v>212</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="5">
+    <row r="22" spans="1:3" s="5" customFormat="1">
+      <c r="A22" s="4">
         <v>213</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="5">
+    <row r="23" spans="1:3" s="5" customFormat="1">
+      <c r="A23" s="4">
         <v>214</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="5">
+    <row r="24" spans="1:3" s="5" customFormat="1">
+      <c r="A24" s="4">
         <v>215</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="5">
+    <row r="25" spans="1:3" s="5" customFormat="1">
+      <c r="A25" s="4">
         <v>301</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="5">
+    <row r="26" spans="1:3" s="5" customFormat="1">
+      <c r="A26" s="4">
         <v>302</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="5">
+    <row r="27" spans="1:3" s="5" customFormat="1">
+      <c r="A27" s="4">
         <v>303</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5">
+    <row r="28" spans="1:3" s="5" customFormat="1">
+      <c r="A28" s="4">
         <v>304</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="5">
+    <row r="29" spans="1:3" s="5" customFormat="1">
+      <c r="A29" s="4">
         <v>305</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="5">
+    <row r="30" spans="1:3" s="5" customFormat="1">
+      <c r="A30" s="4">
         <v>306</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="5">
+    <row r="31" spans="1:3" s="5" customFormat="1">
+      <c r="A31" s="4">
         <v>307</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="5">
+    <row r="32" spans="1:3" s="5" customFormat="1">
+      <c r="A32" s="4">
         <v>308</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="5">
+    <row r="33" spans="1:3" s="5" customFormat="1">
+      <c r="A33" s="4">
         <v>309</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="5">
+    <row r="34" spans="1:3" s="5" customFormat="1">
+      <c r="A34" s="4">
         <v>310</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="5">
+    <row r="35" spans="1:3" s="5" customFormat="1">
+      <c r="A35" s="4">
         <v>311</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="5">
+    <row r="36" spans="1:3" s="5" customFormat="1">
+      <c r="A36" s="4">
         <v>312</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="5">
+    <row r="37" spans="1:3" s="5" customFormat="1">
+      <c r="A37" s="4">
         <v>313</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="5">
+    <row r="38" spans="1:3" s="5" customFormat="1">
+      <c r="A38" s="4">
         <v>314</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="5">
+    <row r="39" spans="1:3" s="5" customFormat="1">
+      <c r="A39" s="4">
         <v>315</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="5">
+    <row r="40" spans="1:3" s="5" customFormat="1">
+      <c r="A40" s="4">
         <v>316</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="5">
+    <row r="41" spans="1:3" s="5" customFormat="1">
+      <c r="A41" s="4">
         <v>317</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="5">
+    <row r="42" spans="1:3" s="5" customFormat="1">
+      <c r="A42" s="4">
         <v>318</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="5">
+    <row r="43" spans="1:3" s="5" customFormat="1">
+      <c r="A43" s="4">
         <v>319</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="5">
+    <row r="44" spans="1:3" s="5" customFormat="1">
+      <c r="A44" s="4">
         <v>320</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="5">
+    <row r="45" spans="1:3" s="5" customFormat="1">
+      <c r="A45" s="4">
         <v>321</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="5">
+    <row r="46" spans="1:3" s="5" customFormat="1">
+      <c r="A46" s="4">
         <v>322</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="5">
+    <row r="47" spans="1:3" s="5" customFormat="1">
+      <c r="A47" s="4">
         <v>323</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="5">
+    <row r="48" spans="1:3" s="5" customFormat="1">
+      <c r="A48" s="4">
         <v>324</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="5">
+    <row r="49" spans="1:3" s="5" customFormat="1">
+      <c r="A49" s="4">
         <v>325</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>96</v>
       </c>
     </row>

--- a/excel/ItemConfig.xlsx
+++ b/excel/ItemConfig.xlsx
@@ -750,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>

--- a/excel/ItemConfig.xlsx
+++ b/excel/ItemConfig.xlsx
@@ -750,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>

--- a/excel/ItemConfig.xlsx
+++ b/excel/ItemConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -54,156 +54,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级至尊星兽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级至尊星兽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级至尊星兽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级至尊星兽拼图1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级至尊星兽拼图2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级至尊星兽拼图3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级至尊星兽拼图4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级至尊星兽拼图5</t>
-  </si>
-  <si>
-    <t>初级至尊星兽拼图6</t>
-  </si>
-  <si>
-    <t>初级至尊星兽拼图7</t>
-  </si>
-  <si>
-    <t>初级至尊星兽拼图8</t>
-  </si>
-  <si>
-    <t>初级至尊星兽拼图9</t>
-  </si>
-  <si>
-    <t>初级至尊星兽拼图10</t>
-  </si>
-  <si>
-    <t>中级至尊星兽拼图1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级至尊星兽拼图2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级至尊星兽拼图3</t>
-  </si>
-  <si>
-    <t>中级至尊星兽拼图4</t>
-  </si>
-  <si>
-    <t>中级至尊星兽拼图5</t>
-  </si>
-  <si>
-    <t>中级至尊星兽拼图6</t>
-  </si>
-  <si>
-    <t>中级至尊星兽拼图7</t>
-  </si>
-  <si>
-    <t>中级至尊星兽拼图8</t>
-  </si>
-  <si>
-    <t>中级至尊星兽拼图9</t>
-  </si>
-  <si>
-    <t>中级至尊星兽拼图10</t>
-  </si>
-  <si>
-    <t>中级至尊星兽拼图11</t>
-  </si>
-  <si>
-    <t>中级至尊星兽拼图12</t>
-  </si>
-  <si>
-    <t>中级至尊星兽拼图13</t>
-  </si>
-  <si>
-    <t>中级至尊星兽拼图14</t>
-  </si>
-  <si>
-    <t>中级至尊星兽拼图15</t>
-  </si>
-  <si>
-    <t>宝石星兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石星兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10级金币龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级金币龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级金币龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级金币龙</t>
-  </si>
-  <si>
-    <t>4级金币龙</t>
-  </si>
-  <si>
-    <t>5级金币龙</t>
-  </si>
-  <si>
-    <t>6级金币龙</t>
-  </si>
-  <si>
-    <t>7级金币龙</t>
-  </si>
-  <si>
-    <t>8级金币龙</t>
-  </si>
-  <si>
-    <t>9级金币龙</t>
-  </si>
-  <si>
-    <t>星兽币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>USDT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>icon/金币</t>
   </si>
   <si>
@@ -334,6 +184,122 @@
   </si>
   <si>
     <t>icon/中级拼图15</t>
+  </si>
+  <si>
+    <t>stb_gem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb_diamond</t>
+  </si>
+  <si>
+    <t>stb_super_lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb_super_lv2</t>
+  </si>
+  <si>
+    <t>stb_super_lv3</t>
+  </si>
+  <si>
+    <t>stb_gold_lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb_gold_lv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb_gold_lv7</t>
+  </si>
+  <si>
+    <t>stb_gold_lv8</t>
+  </si>
+  <si>
+    <t>stb_gold_lv9</t>
+  </si>
+  <si>
+    <t>stb_gold_lv10</t>
+  </si>
+  <si>
+    <t>coin_gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_gems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_starbeast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin_usdt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb_gold_lv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb_gold_lv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb_gold_lv5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb_gold_lv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb_debris|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb_debris|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stb_debris|3</t>
+  </si>
+  <si>
+    <t>stb_debris|4</t>
+  </si>
+  <si>
+    <t>stb_debris|5</t>
+  </si>
+  <si>
+    <t>stb_debris|6</t>
+  </si>
+  <si>
+    <t>stb_debris|7</t>
+  </si>
+  <si>
+    <t>stb_debris|8</t>
+  </si>
+  <si>
+    <t>stb_debris|9</t>
+  </si>
+  <si>
+    <t>stb_debris|10</t>
+  </si>
+  <si>
+    <t>stb_debris|11</t>
+  </si>
+  <si>
+    <t>stb_debris|12</t>
+  </si>
+  <si>
+    <t>stb_debris|13</t>
+  </si>
+  <si>
+    <t>stb_debris|14</t>
+  </si>
+  <si>
+    <t>stb_debris|15</t>
   </si>
 </sst>
 </file>
@@ -751,7 +717,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -822,10 +788,10 @@
         <v>101</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="5" customFormat="1">
@@ -833,10 +799,10 @@
         <v>102</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="5" customFormat="1">
@@ -844,10 +810,10 @@
         <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="5" customFormat="1">
@@ -855,10 +821,10 @@
         <v>104</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="5" customFormat="1">
@@ -866,10 +832,10 @@
         <v>201</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="5" customFormat="1">
@@ -877,10 +843,10 @@
         <v>202</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="5" customFormat="1">
@@ -888,10 +854,10 @@
         <v>203</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="5" customFormat="1">
@@ -899,10 +865,10 @@
         <v>204</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="5" customFormat="1">
@@ -910,10 +876,10 @@
         <v>205</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="5" customFormat="1">
@@ -921,10 +887,10 @@
         <v>206</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="5" customFormat="1">
@@ -932,10 +898,10 @@
         <v>207</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="5" customFormat="1">
@@ -943,10 +909,10 @@
         <v>208</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="5" customFormat="1">
@@ -954,10 +920,10 @@
         <v>209</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="5" customFormat="1">
@@ -965,10 +931,10 @@
         <v>210</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="5" customFormat="1">
@@ -976,10 +942,10 @@
         <v>211</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="5" customFormat="1">
@@ -987,10 +953,10 @@
         <v>212</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="5" customFormat="1">
@@ -998,10 +964,10 @@
         <v>213</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="5" customFormat="1">
@@ -1009,10 +975,10 @@
         <v>214</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="5" customFormat="1">
@@ -1020,10 +986,10 @@
         <v>215</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="5" customFormat="1">
@@ -1031,10 +997,10 @@
         <v>301</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="5" customFormat="1">
@@ -1042,10 +1008,10 @@
         <v>302</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="5" customFormat="1">
@@ -1053,10 +1019,10 @@
         <v>303</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="5" customFormat="1">
@@ -1064,10 +1030,10 @@
         <v>304</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="5" customFormat="1">
@@ -1075,10 +1041,10 @@
         <v>305</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="5" customFormat="1">
@@ -1086,10 +1052,10 @@
         <v>306</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="5" customFormat="1">
@@ -1097,10 +1063,10 @@
         <v>307</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="5" customFormat="1">
@@ -1108,10 +1074,10 @@
         <v>308</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="5" customFormat="1">
@@ -1119,10 +1085,10 @@
         <v>309</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="5" customFormat="1">
@@ -1130,10 +1096,10 @@
         <v>310</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="5" customFormat="1">
@@ -1141,10 +1107,10 @@
         <v>311</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="5" customFormat="1">
@@ -1152,10 +1118,10 @@
         <v>312</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="5" customFormat="1">
@@ -1163,10 +1129,10 @@
         <v>313</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="5" customFormat="1">
@@ -1174,10 +1140,10 @@
         <v>314</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="5" customFormat="1">
@@ -1185,10 +1151,10 @@
         <v>315</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="5" customFormat="1">
@@ -1196,10 +1162,10 @@
         <v>316</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:3" s="5" customFormat="1">
@@ -1207,10 +1173,10 @@
         <v>317</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="5" customFormat="1">
@@ -1218,10 +1184,10 @@
         <v>318</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="5" customFormat="1">
@@ -1229,10 +1195,10 @@
         <v>319</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="5" customFormat="1">
@@ -1240,10 +1206,10 @@
         <v>320</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:3" s="5" customFormat="1">
@@ -1251,10 +1217,10 @@
         <v>321</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="5" customFormat="1">
@@ -1262,10 +1228,10 @@
         <v>322</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="5" customFormat="1">
@@ -1273,10 +1239,10 @@
         <v>323</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="5" customFormat="1">
@@ -1284,10 +1250,10 @@
         <v>324</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="5" customFormat="1">
@@ -1295,10 +1261,10 @@
         <v>325</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
